--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,91 +396,6 @@
         <v>513582</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>513583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>513584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>513585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>513586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>513587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>513588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>513589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>513590</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>513591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>513592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>513593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>513594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>513595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>513596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>513597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>513598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>513599</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,6 +396,41 @@
         <v>513582</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>513583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>513584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>513585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>513586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>513587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>513588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>513589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -20,13 +20,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,56 +390,507 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>513580</v>
+      <c r="A1" s="1">
+        <v>513616</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>513581</v>
+      <c r="A2" s="1">
+        <v>513617</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>513582</v>
+      <c r="A3" s="1">
+        <v>513618</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>513583</v>
+      <c r="A4" s="1">
+        <v>513619</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>513584</v>
+      <c r="A5" s="1">
+        <v>513620</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>513585</v>
+      <c r="A6" s="1">
+        <v>513621</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>513586</v>
+      <c r="A7" s="1">
+        <v>513622</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>513587</v>
+      <c r="A8" s="1">
+        <v>513623</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>513588</v>
+      <c r="A9" s="1">
+        <v>513624</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>513589</v>
+      <c r="A10" s="1">
+        <v>513625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>513626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>513627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>513628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>513629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>513630</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>513631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>513632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>513633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>513634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>513635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>513636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>513637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>513638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>513639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>513640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>513641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>513642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>513643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>513644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>513645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>513646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>513647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>513648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>513649</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>513650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>513651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>513652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>513653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>513654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>513655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>513656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>513657</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>513658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>513659</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>513660</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>513661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>513662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>513663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>513664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>513665</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>513666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>513667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>513668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>513669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>513670</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>513671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>513672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>513673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>513674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>513675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>513676</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>513677</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>513678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>513679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>513680</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>513681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>513682</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>513683</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>513684</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>513685</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>513686</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>513687</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>513688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>513689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>513690</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>513691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>513692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>513693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>513694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>513695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>513696</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>513697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>513698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>513699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>513700</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>513701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>513702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>513703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>513704</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>513705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>513706</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>513707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>513708</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>513709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>513710</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>513711</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>513712</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>513713</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>513714</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>513715</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A100"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,431 +464,6 @@
         <v>513630</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>513631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>513632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>513633</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>513634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>513635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>513636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>513637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>513638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>513639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>513640</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>513641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>513642</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>513643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>513644</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>513645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>513646</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>513647</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>513648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>513649</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>513650</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>513651</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>513652</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>513653</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>513654</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>513655</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>513656</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>513657</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>513658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>513659</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>513660</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>513661</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>513662</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>513663</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>513664</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>513665</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>513666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>513667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>513668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>513669</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>513670</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>513671</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>513672</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>513673</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>513674</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>513675</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>513676</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>513677</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>513678</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>513679</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>513680</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>513681</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>513682</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>513683</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>513684</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>513685</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>513686</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>513687</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>513688</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>513689</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>513690</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>513691</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>513692</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>513693</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>513694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>513695</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>513696</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>513697</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>513698</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>513699</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>513700</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>513701</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>513702</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>513703</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>513704</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>513705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>513706</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>513707</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>513708</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>513709</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>513710</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>513711</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>513712</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>513713</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>513714</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>513715</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
